--- a/pagegen/icaps19_info/ICAPS-2019_accepted.xlsx
+++ b/pagegen/icaps19_info/ICAPS-2019_accepted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/desmith/Professional/Conferences/ICAPS/ICAPS19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatha\Dropbox\websites\TathagataChakraborti.github.io\pagegen\icaps19_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0632B34-7B5C-5145-8F7F-68CCFCD2A499}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1054A20-4DD2-4667-8591-9E362C7B9260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20020" windowHeight="27580" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="11955" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accepted" sheetId="3" r:id="rId1"/>
@@ -41,21 +41,12 @@
     <t>Track</t>
   </si>
   <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Applications</t>
-  </si>
-  <si>
     <t>Shahaf S. Shperberg, Avinoam Yehezkel and Solomon Eyal Shimony</t>
   </si>
   <si>
     <t>Algorithm Selection in Optimization and  Application to Angry Birds</t>
   </si>
   <si>
-    <t>Learning</t>
-  </si>
-  <si>
     <t>Sarah Keren, Luis Pineda, Avigdor Gal, Erez Karpas and Shlomo Zilberstein</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>Replanning for Situated Robots</t>
   </si>
   <si>
-    <t>Robotics</t>
-  </si>
-  <si>
     <t>Jun-Ho Lee and Hyun-Jung Kim</t>
   </si>
   <si>
@@ -600,6 +588,18 @@
   </si>
   <si>
     <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>Novel Applications Track</t>
+  </si>
+  <si>
+    <t>Planning and Learning Track</t>
+  </si>
+  <si>
+    <t>Main Track</t>
+  </si>
+  <si>
+    <t>Robotics Track</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -756,19 +756,6 @@
       <left style="thin">
         <color indexed="48"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="48"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="48"/>
-      </left>
       <right style="thin">
         <color indexed="48"/>
       </right>
@@ -816,21 +803,6 @@
       </left>
       <right style="thin">
         <color indexed="48"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="48"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -900,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -921,9 +893,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,13 +920,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -966,35 +932,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,19 +1344,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DDA6E3-7162-1842-8EA1-DDB6C912DF5D}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="60.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="60.1328125" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="14"/>
+    <col min="5" max="5" width="29.9296875" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,1797 +1368,1797 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="F1" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F2" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F3" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="F4" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F5" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F6" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F7" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>166</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F8" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>170</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
+      <c r="F9" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
         <v>177</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="F10" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="24">
         <v>198</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="26" t="s">
+      <c r="B11" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
+      <c r="F11" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.9" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
         <v>37</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>91</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>124</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>155</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>187</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>221</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>226</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>240</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+        <v>183</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="18">
         <v>278</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="B20" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19">
+      <c r="F20" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17">
         <v>7</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="22" t="s">
+      <c r="B21" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="C21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>61</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>99</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>104</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>106</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>113</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>141</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>145</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>148</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>152</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>158</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>161</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>173</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>175</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>176</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>181</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>190</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>193</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>197</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>204</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>208</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>209</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>215</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>250</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>254</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>259</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>272</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>275</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>284</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>20</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>26</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>36</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>55</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>119</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>120</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>150</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>151</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>159</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>167</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="29">
+        <v>211</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="30">
+        <v>232</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="25.9" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="17">
+        <v>19</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" s="20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="32">
-        <v>211</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="33">
-        <v>232</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="29" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="19">
-        <v>19</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F79" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>23</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="F80" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>31</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" s="20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="F81" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F82" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>203</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F83" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>219</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F84" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>227</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E85" s="20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="F85" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>235</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E86" s="20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F86" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>258</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E87" s="20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F87" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>265</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" s="20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="F88" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>268</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="20">
+      <c r="F89" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="18">
         <v>282</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="25" t="s">
+      <c r="B90" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" s="21" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="14" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="F91" s="30"/>
+      <c r="F90" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F91" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pagegen/icaps19_info/ICAPS-2019_accepted.xlsx
+++ b/pagegen/icaps19_info/ICAPS-2019_accepted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatha\Dropbox\websites\TathagataChakraborti.github.io\pagegen\icaps19_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/desmith/Dropbox/conferences/ICAPS/ICAPS19/icaps19_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1054A20-4DD2-4667-8591-9E362C7B9260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639748DC-2B9E-1C45-BD13-0361E2D30B64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="11955" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23180" windowHeight="25060" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accepted" sheetId="3" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>Temporal Brittleness Analysis of Task Networks for Planetary Rovers</t>
   </si>
   <si>
-    <t>Jingkai Chen and Brian Williams</t>
-  </si>
-  <si>
     <t>Efficiently Exploring Ordering Problems through Conflict-directed Search</t>
   </si>
   <si>
@@ -600,6 +597,9 @@
   </si>
   <si>
     <t>Robotics Track</t>
+  </si>
+  <si>
+    <t>Jingkai Chen, Cheng Fang, David Wang, Andrew Wang and Brian Williams</t>
   </si>
 </sst>
 </file>
@@ -1344,20 +1344,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DDA6E3-7162-1842-8EA1-DDB6C912DF5D}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" customWidth="1"/>
-    <col min="2" max="2" width="60.1328125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="5" max="5" width="29.9296875" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="13"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1368,16 +1368,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>58</v>
       </c>
@@ -1388,16 +1388,16 @@
         <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>63</v>
       </c>
@@ -1408,176 +1408,176 @@
         <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>166</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>170</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>177</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>198</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>131</v>
-      </c>
       <c r="D11" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="25.9" thickTop="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>37</v>
       </c>
@@ -1588,176 +1588,176 @@
         <v>29</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>91</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>124</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>155</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>187</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>221</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>226</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>240</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>278</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>177</v>
-      </c>
       <c r="D20" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17">
         <v>7</v>
       </c>
@@ -1768,16 +1768,16 @@
         <v>5</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>12</v>
       </c>
@@ -1788,16 +1788,16 @@
         <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1808,16 +1808,16 @@
         <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>17</v>
       </c>
@@ -1828,16 +1828,16 @@
         <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1848,16 +1848,16 @@
         <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>34</v>
       </c>
@@ -1868,16 +1868,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>45</v>
       </c>
@@ -1888,16 +1888,16 @@
         <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>48</v>
       </c>
@@ -1908,16 +1908,16 @@
         <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>57</v>
       </c>
@@ -1928,16 +1928,16 @@
         <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>61</v>
       </c>
@@ -1948,736 +1948,736 @@
         <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>99</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>104</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>106</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>113</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>141</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>145</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>148</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>152</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>158</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>161</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>173</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>175</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>176</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>181</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>190</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>193</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>197</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>204</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>208</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>209</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>215</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>229</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>250</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>254</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="D62" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>259</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="D63" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>272</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="D64" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>275</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>284</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>20</v>
       </c>
@@ -2688,16 +2688,16 @@
         <v>15</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>26</v>
       </c>
@@ -2708,16 +2708,16 @@
         <v>21</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>36</v>
       </c>
@@ -2728,16 +2728,16 @@
         <v>27</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>55</v>
       </c>
@@ -2748,176 +2748,176 @@
         <v>35</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>119</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="D71" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>120</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="D72" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>150</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="D73" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>151</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="D74" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>159</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="D75" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>167</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="D76" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="29">
         <v>211</v>
       </c>
       <c r="B77" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="D77" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="30">
         <v>232</v>
       </c>
       <c r="B78" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>155</v>
-      </c>
       <c r="D78" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="25.9" thickTop="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="29" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A79" s="17">
         <v>19</v>
       </c>
@@ -2928,16 +2928,16 @@
         <v>13</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>23</v>
       </c>
@@ -2948,16 +2948,16 @@
         <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>31</v>
       </c>
@@ -2968,196 +2968,196 @@
         <v>23</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>203</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>219</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>227</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>235</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>258</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>265</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D88" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>268</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <v>282</v>
       </c>
       <c r="B90" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="18" t="s">
-        <v>179</v>
-      </c>
       <c r="D90" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="F91" s="27"/>
     </row>
   </sheetData>
